--- a/biology/Botanique/Cirse/Cirse.xlsx
+++ b/biology/Botanique/Cirse/Cirse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cirsium
-Les cirses sont des plantes herbacées, bisannuelles ou vivaces, appartenant à la famille des Astéracées (ou Composées) et au genre Cirsium. L'appellation cirse vient du grec kirsion, nom d'un chardon employé pour lutter contre les varices appelées kirsos[1].
+Les cirses sont des plantes herbacées, bisannuelles ou vivaces, appartenant à la famille des Astéracées (ou Composées) et au genre Cirsium. L'appellation cirse vient du grec kirsion, nom d'un chardon employé pour lutter contre les varices appelées kirsos.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le mot cirsion désignait en latin une sorte de chardon censé lutter contre les varices (grec kirsos = varice).
 </t>
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Très proches des chardons (genre Carduus), avec lesquels ils sont fréquemment confondus, ils s'en distinguent essentiellement par les aigrettes de leurs fruits, appelées aussi pappus. Les chardons ont un pappus formé de poils simples ou denticulés, tandis que les cirses ont un pappus de poils plumeux. Pour le reste, il y a entre les deux genres beaucoup plus de ressemblances que de différences : tiges souvent ailées, feuilles épineuses, fleurs tubulées (le plus souvent dans les teintes roses) groupées en capitules, présence d'écailles ou de touffes de poils entre les fleurs, bractées épineuses.
 </t>
@@ -574,7 +590,9 @@
           <t>Ravageurs</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La chenille d'Aethes cnicana vit sur les cirses.
 </t>
@@ -605,7 +623,9 @@
           <t>Principales espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Cirsium acaule Scop. - Cirse acaule
@@ -706,9 +726,11 @@
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Tous les espèces de cirses (59, dont 23 en France, 11 en Suisse et 9 en Belgique, l'espèce la plus commune étant le cirse des champs) sont à priori sans danger et peuvent être consommées crus ou cuites, bien que certaines soient trop amères, trop petites ou trop épineuses[2].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tous les espèces de cirses (59, dont 23 en France, 11 en Suisse et 9 en Belgique, l'espèce la plus commune étant le cirse des champs) sont à priori sans danger et peuvent être consommées crus ou cuites, bien que certaines soient trop amères, trop petites ou trop épineuses.
 Dans les îles Canaries, cette fleur est utilisée en remplacement de la présure animale pour la fabrication de certains fromages.
 </t>
         </is>
